--- a/data/trans_dic/P13A_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_R-Clase-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.004581664957551255</v>
+        <v>0.004581664957551254</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.02944067572399352</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001042428459909383</v>
+        <v>0.001084261533003559</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01787329510034428</v>
+        <v>0.0173463671397117</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0108046601948358</v>
+        <v>0.01003617405442444</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01260035901501551</v>
+        <v>0.01353829903756104</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04856536234254871</v>
+        <v>0.04860733683296323</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02613486738765499</v>
+        <v>0.02587103503225399</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.002133825894896309</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.02902450772648686</v>
+        <v>0.02902450772648687</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.01470304152582234</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01697941132159417</v>
+        <v>0.01690731567437317</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008474306352308709</v>
+        <v>0.009293344707765345</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01170521069279354</v>
+        <v>0.01180657170229629</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04439612598411339</v>
+        <v>0.04419027034763801</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02181124532254205</v>
+        <v>0.02294080973361447</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.01735866248549216</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.07159339100171028</v>
+        <v>0.07159339100171026</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.03277359879670484</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007247614367713351</v>
+        <v>0.008418613060209921</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04220781154105759</v>
+        <v>0.04135656051840631</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02105946054737273</v>
+        <v>0.02079258557781729</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03355831955002294</v>
+        <v>0.03445818342366466</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1282549825762649</v>
+        <v>0.133815024908997</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0521055460435484</v>
+        <v>0.04932257232557164</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.01177205531667513</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05064102116623111</v>
+        <v>0.0506410211662311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02856956005653711</v>
+        <v>0.02856956005653712</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006476761885986896</v>
+        <v>0.006097476108291859</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03822955006693134</v>
+        <v>0.0386970357995414</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02240790758842132</v>
+        <v>0.02264532900343747</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02017709383032375</v>
+        <v>0.01976572187000752</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06669155407056519</v>
+        <v>0.06504368294961332</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03581138444078713</v>
+        <v>0.03627181427465032</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01046903612543612</v>
+        <v>0.01123973399853238</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04975240433745614</v>
+        <v>0.05024840142020885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0362190817371695</v>
+        <v>0.03571722716115758</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03737686535627012</v>
+        <v>0.04015791926967305</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08022247221649992</v>
+        <v>0.08063869623919863</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0578439365992981</v>
+        <v>0.05765222413766423</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003446203081196637</v>
+        <v>0.003357527858418263</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01370068347627789</v>
+        <v>0.01444263906822197</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01357021887008631</v>
+        <v>0.01338810949975763</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03640740408607438</v>
+        <v>0.03377446169708352</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03113142320482086</v>
+        <v>0.03109727243651607</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02777964936253704</v>
+        <v>0.02775707665413124</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.008623489007308924</v>
+        <v>0.008183113163637611</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0367060183336612</v>
+        <v>0.03660054001469055</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02386024942399017</v>
+        <v>0.02374492558951001</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01541440177378397</v>
+        <v>0.0157574063538906</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04907585130596253</v>
+        <v>0.04864333669467043</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03104113376392637</v>
+        <v>0.03093062916942126</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8675</v>
+        <v>8419</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11162</v>
+        <v>10368</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6901</v>
+        <v>7415</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23572</v>
+        <v>23593</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26999</v>
+        <v>26727</v>
       </c>
     </row>
     <row r="8">
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7170</v>
+        <v>7140</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7656</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5632</v>
+        <v>5681</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18748</v>
+        <v>18661</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19705</v>
+        <v>20725</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3412</v>
+        <v>3963</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7890</v>
+        <v>7731</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13850</v>
+        <v>13675</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15797</v>
+        <v>16221</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23975</v>
+        <v>25014</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34269</v>
+        <v>32438</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7305</v>
+        <v>6877</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32815</v>
+        <v>33216</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>44507</v>
+        <v>44979</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22757</v>
+        <v>22293</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>57245</v>
+        <v>55831</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>71129</v>
+        <v>72044</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5920</v>
+        <v>6355</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>41073</v>
+        <v>41482</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>50380</v>
+        <v>49682</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>21134</v>
+        <v>22707</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>66228</v>
+        <v>66571</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>80460</v>
+        <v>80194</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>11520</v>
+        <v>12144</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>14630</v>
+        <v>14434</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8637</v>
+        <v>8012</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>26177</v>
+        <v>26148</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>29949</v>
+        <v>29925</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>29580</v>
+        <v>28069</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>132852</v>
+        <v>132470</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>168202</v>
+        <v>167389</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>52873</v>
+        <v>54050</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>177623</v>
+        <v>176058</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>218824</v>
+        <v>218045</v>
       </c>
     </row>
     <row r="32">
